--- a/biology/Zoologie/Chèvre_(nom_vernaculaire)/Chèvre_(nom_vernaculaire).xlsx
+++ b/biology/Zoologie/Chèvre_(nom_vernaculaire)/Chèvre_(nom_vernaculaire).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ch%C3%A8vre_(nom_vernaculaire)</t>
+          <t>Chèvre_(nom_vernaculaire)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,18 +490,20 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le terme « chèvre » est un nom vernaculaire ambigu en français, pouvant désigner plusieurs espèces différentes de bovidés :
-la Chèvre égagre, Chèvre sauvage ou Chèvre à bézoard (Capra aegagrus)[1],[2] ;
-la Chèvre sauvage de Crète (C. a. cretica)[1] ;
-la Chèvre du Caucase ou Tur occidental (C. caucasica)[2] ;
-la Chèvre des Indes, Chèvre de Falconer ou Markhor (C. falconeri)[2] ;
-la Chèvre domestique ou Chèvre (C. hircus)[2] ;
-la Chèvre sauvage, Bouquetin des Alpes ou Ibex (C. ibex)[1],[2] ;
-la Chèvre des montagnes (Oreamnos americanus)[1] ;
-les Demi-chèvres ou Tahrs (genres Arabitragus, Hemitragus et Nilgiritragus)[3] ;
-la Chèvre américaine, Antilope d'Amérique, Pronghorn ou Antilocapre (Antilocapra americana)[1],[4], qui appartient à la famille des antilocapridés.
+la Chèvre égagre, Chèvre sauvage ou Chèvre à bézoard (Capra aegagrus), ;
+la Chèvre sauvage de Crète (C. a. cretica) ;
+la Chèvre du Caucase ou Tur occidental (C. caucasica) ;
+la Chèvre des Indes, Chèvre de Falconer ou Markhor (C. falconeri) ;
+la Chèvre domestique ou Chèvre (C. hircus) ;
+la Chèvre sauvage, Bouquetin des Alpes ou Ibex (C. ibex), ;
+la Chèvre des montagnes (Oreamnos americanus) ;
+les Demi-chèvres ou Tahrs (genres Arabitragus, Hemitragus et Nilgiritragus) ;
+la Chèvre américaine, Antilope d'Amérique, Pronghorn ou Antilocapre (Antilocapra americana) qui appartient à la famille des antilocapridés.
 			Chèvre égagre (Capra aegagrus)
 			Chèvre du Caucase (C. caucasica)
 			Chèvre des Indes (C. falconeri)
